--- a/public/templates/report_template_1.xlsx
+++ b/public/templates/report_template_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\accounting\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C01CF97-E060-4EB9-8FF8-841CD78FCCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99095A41-DBE9-45FE-A6FD-573DDA319AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{E5DE1AE7-4D21-4230-B810-7EE1A9C0F931}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E5DE1AE7-4D21-4230-B810-7EE1A9C0F931}"/>
   </bookViews>
   <sheets>
     <sheet name="TRIAL BALANCE" sheetId="1" r:id="rId1"/>
@@ -458,48 +458,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -519,6 +477,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82AB631-1067-4309-A1C3-66D9AD83130F}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,25 +849,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
@@ -909,7 +909,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,10 +976,10 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="59" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -996,27 +996,27 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
@@ -1121,25 +1121,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8563A42E-68D5-47BE-B44A-5240F8F38B70}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" style="62" customWidth="1"/>
+    <col min="1" max="1" width="48.33203125" style="48" customWidth="1"/>
     <col min="2" max="2" width="52" style="23" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="65" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="65" customWidth="1"/>
-    <col min="5" max="7" width="22.6640625" style="65" customWidth="1"/>
-    <col min="8" max="8" width="34.21875" style="65" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="51" customWidth="1"/>
+    <col min="5" max="7" width="22.6640625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="34.21875" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
@@ -1150,10 +1150,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -1164,10 +1164,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
       <c r="E3" s="43"/>
@@ -1176,28 +1176,28 @@
       <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="50" t="s">
         <v>30</v>
       </c>
     </row>
